--- a/src/assets/Data/PDF Builder.xlsx
+++ b/src/assets/Data/PDF Builder.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Raksha\Projects\Javascript Projects\Equipment Installation diagram app\MountingDiagram app\src\assets\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6FCE93-4C3A-4A1D-AF08-F0AC0E1B3DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="42170" yWindow="-1550" windowWidth="12140" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Screen MFR" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Media Player MFR" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Mounts" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Receptacle Box" sheetId="4" r:id="rId7"/>
+    <sheet name="Screen MFR" sheetId="1" r:id="rId1"/>
+    <sheet name="Media Player MFR" sheetId="2" r:id="rId2"/>
+    <sheet name="Mounts" sheetId="3" r:id="rId3"/>
+    <sheet name="Receptacle Box" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -22,9 +31,6 @@
     <t>Make</t>
   </si>
   <si>
-    <t>Screen Size</t>
-  </si>
-  <si>
     <t>Height</t>
   </si>
   <si>
@@ -302,31 +308,35 @@
   </si>
   <si>
     <t>Arlington</t>
+  </si>
+  <si>
+    <t>Screen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;Aptos Narrow&quot;"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -336,63 +346,51 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -582,24 +580,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.25"/>
-    <col hidden="1" min="7" max="7" width="12.63"/>
+    <col min="1" max="1" width="28.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,30 +610,30 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" s="1">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1">
         <v>23.01</v>
@@ -645,15 +648,15 @@
         <v>31.97</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1">
         <v>10</v>
-      </c>
-      <c r="C3" s="1">
-        <v>10.0</v>
       </c>
       <c r="D3" s="1">
         <v>6.58</v>
@@ -662,21 +665,21 @@
         <v>10.28</v>
       </c>
       <c r="F3" s="1">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="G3" s="1">
         <v>1.57</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1">
         <v>31.7</v>
@@ -685,21 +688,21 @@
         <v>51.3</v>
       </c>
       <c r="F4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1">
         <v>63.71</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1">
         <v>28.92</v>
@@ -714,15 +717,15 @@
         <v>59.3</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="D6" s="1">
         <v>33.51</v>
@@ -737,15 +740,15 @@
         <v>81.8</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C7" s="1">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1">
         <v>22.01</v>
@@ -757,15 +760,15 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="D8" s="1">
         <v>37.81</v>
@@ -780,15 +783,15 @@
         <v>51.2</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1">
         <v>23.85</v>
@@ -800,18 +803,18 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="D10" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1">
         <v>48.5</v>
@@ -823,15 +826,15 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1">
         <v>30.3</v>
@@ -840,21 +843,21 @@
         <v>49.8</v>
       </c>
       <c r="F11" s="1">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="G11" s="1">
         <v>57.32</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="D12" s="1">
         <v>49.33</v>
@@ -866,18 +869,18 @@
         <v>3.13</v>
       </c>
       <c r="G12" s="1">
-        <v>78.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="D13" s="1">
         <v>55.43</v>
@@ -892,15 +895,15 @@
         <v>242.51</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="D14" s="1">
         <v>49.3</v>
@@ -912,21 +915,21 @@
         <v>3.13</v>
       </c>
       <c r="G14" s="1">
-        <v>78.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="D15" s="1">
-        <v>33.23</v>
+        <v>33.229999999999997</v>
       </c>
       <c r="E15" s="1">
         <v>57.22</v>
@@ -938,61 +941,61 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="D16" s="1">
         <v>37.81</v>
       </c>
       <c r="E16" s="1">
-        <v>66.24</v>
+        <v>66.239999999999995</v>
       </c>
       <c r="F16" s="1">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="G16" s="1">
         <v>41.5</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="D17" s="1">
         <v>37.81</v>
       </c>
       <c r="E17" s="1">
-        <v>66.24</v>
+        <v>66.239999999999995</v>
       </c>
       <c r="F17" s="1">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="G17" s="1">
         <v>41.5</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="D18" s="1">
         <v>43.19</v>
@@ -1004,18 +1007,18 @@
         <v>2.39</v>
       </c>
       <c r="G18" s="1">
-        <v>49.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="D19" s="1">
         <v>49.09</v>
@@ -1027,21 +1030,21 @@
         <v>3.3</v>
       </c>
       <c r="G19" s="1">
-        <v>81.1</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>81.099999999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="1">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="D20" s="1">
-        <v>34.23</v>
+        <v>34.229999999999997</v>
       </c>
       <c r="E20" s="1">
         <v>58.83</v>
@@ -1050,15 +1053,15 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="1">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="D21" s="1">
         <v>44.58</v>
@@ -1070,18 +1073,18 @@
         <v>3.17</v>
       </c>
       <c r="G21" s="1">
-        <v>163.8</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>163.80000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="1">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="D22" s="1">
         <v>44.4</v>
@@ -1096,15 +1099,15 @@
         <v>212.1</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="D23" s="1">
         <v>29.27</v>
@@ -1116,21 +1119,21 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="D24" s="1">
-        <v>39.12</v>
+        <v>39.119999999999997</v>
       </c>
       <c r="E24" s="1">
-        <v>67.54</v>
+        <v>67.540000000000006</v>
       </c>
       <c r="F24" s="1">
         <v>3.18</v>
@@ -1139,15 +1142,15 @@
         <v>116.85</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C25" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="D25" s="1">
         <v>25.7</v>
@@ -1162,15 +1165,15 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="C26" s="1">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="D26" s="1">
         <v>34.08</v>
@@ -1185,15 +1188,15 @@
         <v>111.14</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="D27" s="1">
         <v>26.88</v>
@@ -1208,18 +1211,18 @@
         <v>31.68</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C28" s="1">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="D28" s="1">
-        <v>33.77</v>
+        <v>33.770000000000003</v>
       </c>
       <c r="E28" s="1">
         <v>58.39</v>
@@ -1231,18 +1234,18 @@
         <v>112.88</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C29" s="1">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="D29" s="1">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="E29" s="1">
         <v>58.4</v>
@@ -1254,15 +1257,15 @@
         <v>110.2</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="1">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="D30" s="1">
         <v>50.3</v>
@@ -1274,18 +1277,18 @@
         <v>3.9</v>
       </c>
       <c r="G30" s="1">
-        <v>278.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="C31" s="1">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="D31" s="1">
         <v>33.6</v>
@@ -1297,41 +1300,41 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32" s="1">
-        <v>163.0</v>
+        <v>163</v>
       </c>
       <c r="D32" s="1">
         <v>79.75</v>
       </c>
       <c r="E32" s="1">
-        <v>141.8</v>
+        <v>141.80000000000001</v>
       </c>
       <c r="F32" s="1">
         <v>1.62</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="D33" s="1">
         <v>419.4</v>
       </c>
       <c r="E33" s="1">
-        <v>723.0</v>
+        <v>723</v>
       </c>
       <c r="F33" s="1">
         <v>39.1</v>
@@ -1340,15 +1343,15 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="1">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="D34" s="1">
         <v>24.66</v>
@@ -1363,15 +1366,15 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C35" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="D35" s="1">
         <v>27.93</v>
@@ -1386,15 +1389,15 @@
         <v>57.32</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36" s="1">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="D36" s="1">
         <v>25.8</v>
@@ -1409,18 +1412,18 @@
         <v>70.5</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C37" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="D37" s="1">
-        <v>17.76</v>
+        <v>17.760000000000002</v>
       </c>
       <c r="E37" s="1">
         <v>29.41</v>
@@ -1433,250 +1436,251 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.25"/>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="C2" s="5">
         <v>5.59</v>
       </c>
       <c r="D2" s="5">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E2" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="5">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="C4" s="5">
         <v>7.2</v>
       </c>
       <c r="D4" s="5">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E4" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="5">
         <v>7.2</v>
       </c>
       <c r="D5" s="5">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E5" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="5">
         <v>7.2</v>
       </c>
       <c r="D6" s="5">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E6" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="5">
         <v>7.2</v>
       </c>
       <c r="D7" s="5">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E7" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="5">
         <v>7.2</v>
       </c>
       <c r="D8" s="5">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E8" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="5">
         <v>7.2</v>
       </c>
       <c r="D9" s="5">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E9" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="5">
         <v>7.2</v>
       </c>
       <c r="D10" s="5">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E10" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="5">
         <v>7.2</v>
       </c>
       <c r="D11" s="5">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E11" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="5">
         <v>7.2</v>
       </c>
       <c r="D12" s="5">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E12" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="C13" s="5">
         <v>7.5</v>
       </c>
       <c r="D13" s="5">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E13" s="5">
         <v>2.5</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="C14" s="5">
         <v>7.09</v>
@@ -1689,65 +1693,66 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.13"/>
-    <col customWidth="1" min="3" max="3" width="17.63"/>
-    <col customWidth="1" hidden="1" min="4" max="4" width="110.25"/>
-    <col customWidth="1" min="6" max="6" width="12.88"/>
-    <col customWidth="1" min="8" max="8" width="29.25"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="110.21875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="29.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="5">
+        <v>200</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C2" s="5">
-        <v>200.0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="E2" s="5">
         <v>27.41</v>
@@ -1756,27 +1761,27 @@
         <v>20.57</v>
       </c>
       <c r="G2" s="5">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H2" s="5">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="5">
+        <v>300</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="5">
-        <v>300.0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="E3" s="5">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="F3" s="5">
         <v>24.5</v>
@@ -1785,21 +1790,21 @@
         <v>1.4</v>
       </c>
       <c r="H3" s="5">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="5">
+        <v>200</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="5">
-        <v>200.0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="E4" s="5">
         <v>27.37</v>
@@ -1811,21 +1816,21 @@
         <v>1.4</v>
       </c>
       <c r="H4" s="5">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="5">
+        <v>200</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="5">
-        <v>200.0</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="E5" s="5">
         <v>34.5</v>
@@ -1837,20 +1842,20 @@
         <v>1.4</v>
       </c>
       <c r="H5" s="5">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C6" s="5">
-        <v>250.0</v>
-      </c>
-      <c r="D6" s="6"/>
+        <v>250</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="5">
         <v>42.75</v>
       </c>
@@ -1861,21 +1866,21 @@
         <v>2.25</v>
       </c>
       <c r="H6" s="5">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="5">
+        <v>200</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C7" s="5">
-        <v>200.0</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="E7" s="5">
         <v>28.84</v>
@@ -1887,21 +1892,21 @@
         <v>3.82</v>
       </c>
       <c r="H7" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="5">
+        <v>250</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="5">
-        <v>250.0</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="E8" s="5">
         <v>34.75</v>
@@ -1913,46 +1918,46 @@
         <v>2.25</v>
       </c>
       <c r="H8" s="5">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="5">
-        <v>350.0</v>
-      </c>
-      <c r="D9" s="6"/>
+        <v>350</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="5">
         <v>54.36</v>
       </c>
       <c r="F9" s="5">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="G9" s="5">
         <v>2.64</v>
       </c>
       <c r="H9" s="5">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="3">
-        <v>350.0</v>
-      </c>
-      <c r="D10" s="6"/>
+        <v>350</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="5">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="F10" s="5">
         <v>19.18</v>
@@ -1961,47 +1966,50 @@
         <v>2.67</v>
       </c>
       <c r="H10" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="C2" s="1">
         <v>6.25</v>
@@ -2014,6 +2022,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/assets/Data/PDF Builder.xlsx
+++ b/src/assets/Data/PDF Builder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Raksha\Projects\Javascript Projects\Equipment Installation diagram app\MountingDiagram app\src\assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6FCE93-4C3A-4A1D-AF08-F0AC0E1B3DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E03EE2-058C-4ECA-BEA6-5E52E0DF5A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42170" yWindow="-1550" windowWidth="12140" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42170" yWindow="-1550" windowWidth="12140" windowHeight="8880" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Screen MFR" sheetId="1" r:id="rId1"/>
@@ -232,9 +232,6 @@
     <t>Brand</t>
   </si>
   <si>
-    <t>Maximum Load (lbs)</t>
-  </si>
-  <si>
     <t>VESA's</t>
   </si>
   <si>
@@ -311,6 +308,9 @@
   </si>
   <si>
     <t>Screen</t>
+  </si>
+  <si>
+    <t>MaximumLoad</t>
   </si>
 </sst>
 </file>
@@ -592,7 +592,7 @@
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -610,7 +610,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1704,7 +1704,9 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1723,36 +1725,36 @@
         <v>68</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="C2" s="5">
         <v>200</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" s="5">
         <v>27.41</v>
@@ -1769,16 +1771,16 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="5">
         <v>300</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" s="5">
         <v>45</v>
@@ -1795,16 +1797,16 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="5">
         <v>200</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="5">
         <v>27.37</v>
@@ -1821,16 +1823,16 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="5">
         <v>200</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" s="5">
         <v>34.5</v>
@@ -1847,10 +1849,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="C6" s="5">
         <v>250</v>
@@ -1871,16 +1873,16 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="C7" s="5">
         <v>200</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" s="5">
         <v>28.84</v>
@@ -1897,16 +1899,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="5">
         <v>250</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" s="5">
         <v>34.75</v>
@@ -1923,10 +1925,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="5">
         <v>350</v>
@@ -1947,10 +1949,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="3">
         <v>350</v>
@@ -2006,10 +2008,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="C2" s="1">
         <v>6.25</v>
